--- a/Study 3/Shocks/GCAM/CP_EI - 2090.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2090.xlsx
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.01147037691339401</v>
+        <v>0.011470376913394</v>
       </c>
     </row>
     <row r="17">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.02550572625712394</v>
+        <v>0.02550572625712393</v>
       </c>
     </row>
     <row r="18">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.06147405308099456</v>
+        <v>0.06147405308099455</v>
       </c>
     </row>
     <row r="21">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.01376425596773699</v>
+        <v>0.01376425596773698</v>
       </c>
     </row>
     <row r="30">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.02294745886260849</v>
+        <v>0.02294745886260848</v>
       </c>
     </row>
     <row r="33">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.04037622810293043</v>
+        <v>0.04037622810293042</v>
       </c>
     </row>
     <row r="34">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.2140824323598388</v>
+        <v>0.2140824323598387</v>
       </c>
     </row>
     <row r="41">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.3700824657934966</v>
+        <v>0.3700824657934965</v>
       </c>
     </row>
   </sheetData>
